--- a/P11/Scrum_Sprint_5.xlsx
+++ b/P11/Scrum_Sprint_5.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24202D5B-914E-4429-942F-B9FED4CB2F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P11/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79741BFC-988F-3D40-9390-E2E3F1DDA0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30160" windowHeight="17100" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="169">
   <si>
     <t>Product Name:</t>
   </si>
@@ -517,6 +522,33 @@
   </si>
   <si>
     <t>NOTE: This sprint is entirely OPTIONAL – no points will be lost if you ignore it</t>
+  </si>
+  <si>
+    <t>ELSA</t>
+  </si>
+  <si>
+    <t>Rachael Rocha</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 2</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 3</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 4</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 5</t>
+  </si>
+  <si>
+    <t>Completed Day 7</t>
   </si>
 </sst>
 </file>
@@ -527,7 +559,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -677,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -807,6 +839,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,19 +1065,19 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,7 +1284,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -1398,7 +1433,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -1472,7 +1507,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -2191,7 +2226,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2340,7 +2375,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2414,7 +2449,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -2604,7 +2639,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,7 +3166,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -3172,7 +3207,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
@@ -3213,7 +3248,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -3254,7 +3289,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
@@ -3295,7 +3330,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
@@ -3336,7 +3371,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
@@ -3377,7 +3412,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
@@ -3703,31 +3738,33 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A36" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13" style="4" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="37" style="4" customWidth="1"/>
-    <col min="11" max="11" width="62.28515625" style="4" customWidth="1"/>
-    <col min="12" max="1024" width="11.5703125" style="4"/>
+    <col min="11" max="11" width="62.33203125" style="4" customWidth="1"/>
+    <col min="12" max="1024" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="17.45">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="45" t="s">
+        <v>160</v>
+      </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -3739,7 +3776,7 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3753,7 +3790,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3765,7 +3802,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3783,21 +3820,27 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="47" t="s">
+        <v>161</v>
+      </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="48">
+        <v>1001828709</v>
+      </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1">
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -3809,7 +3852,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -3821,7 +3864,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3833,7 +3876,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1">
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -3845,7 +3888,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1">
+    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -3857,7 +3900,7 @@
       <c r="I10"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1">
+    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3877,7 +3920,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1">
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -3898,17 +3941,17 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>1</v>
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3922,17 +3965,17 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="7" customFormat="1">
+    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>2</v>
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
@@ -3946,17 +3989,17 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1">
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>3</v>
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="5"/>
@@ -3970,17 +4013,17 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1">
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>4</v>
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
@@ -3990,17 +4033,17 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>5</v>
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
@@ -4010,7 +4053,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1">
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4022,7 +4065,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1">
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4034,7 +4077,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1">
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4048,7 +4091,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4062,7 +4105,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1">
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -4078,7 +4121,7 @@
       </c>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -4113,7 +4156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
@@ -4127,8 +4170,12 @@
       <c r="E24" s="16">
         <v>3</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="17">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="H24" s="18" t="s">
         <v>31</v>
       </c>
@@ -4142,7 +4189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="24.2">
+    <row r="25" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
@@ -4156,8 +4203,12 @@
       <c r="E25" s="16">
         <v>3</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
       </c>
@@ -4171,7 +4222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.2">
+    <row r="26" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
@@ -4185,8 +4236,12 @@
       <c r="E26" s="16">
         <v>8</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
       </c>
@@ -4198,7 +4253,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" ht="24.2">
+    <row r="27" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
@@ -4212,8 +4267,12 @@
       <c r="E27" s="16">
         <v>8</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="H27" s="18" t="s">
         <v>31</v>
       </c>
@@ -4225,7 +4284,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" ht="24.2">
+    <row r="28" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>46</v>
       </c>
@@ -4239,8 +4298,12 @@
       <c r="E28" s="16">
         <v>13</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
       </c>
@@ -4252,7 +4315,7 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>49</v>
       </c>
@@ -4266,8 +4329,12 @@
       <c r="E29" s="21">
         <v>13</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="H29" s="18" t="s">
         <v>31</v>
       </c>
@@ -4281,7 +4348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
         <v>53</v>
       </c>
@@ -4295,8 +4362,12 @@
       <c r="E30" s="21">
         <v>5</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="F30" s="17">
+        <v>2</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="H30" s="18" t="s">
         <v>31</v>
       </c>
@@ -4310,7 +4381,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>57</v>
       </c>
@@ -4324,8 +4395,12 @@
       <c r="E31" s="21">
         <v>3</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="F31" s="17">
+        <v>2</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="H31" s="18" t="s">
         <v>31</v>
       </c>
@@ -4337,7 +4412,7 @@
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>59</v>
       </c>
@@ -4351,8 +4426,12 @@
       <c r="E32" s="21">
         <v>5</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="F32" s="17">
+        <v>2</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="H32" s="18" t="s">
         <v>31</v>
       </c>
@@ -4364,7 +4443,7 @@
       </c>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="24">
+    <row r="33" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
         <v>61</v>
       </c>
@@ -4378,8 +4457,12 @@
       <c r="E33" s="21">
         <v>5</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="F33" s="17">
+        <v>2</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="H33" s="18" t="s">
         <v>31</v>
       </c>
@@ -4393,7 +4476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="20" t="s">
         <v>65</v>
       </c>
@@ -4407,8 +4490,12 @@
       <c r="E34" s="21">
         <v>8</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="F34" s="17">
+        <v>2</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="H34" s="18" t="s">
         <v>31</v>
       </c>
@@ -4422,7 +4509,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24">
+    <row r="35" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="41" t="s">
         <v>69</v>
       </c>
@@ -4436,8 +4523,12 @@
       <c r="E35" s="42">
         <v>2</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="F35" s="17">
+        <v>3</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="H35" s="18" t="s">
         <v>70</v>
       </c>
@@ -4451,7 +4542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="36" spans="1:11" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
@@ -4465,8 +4556,12 @@
       <c r="E36" s="16">
         <v>5</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="F36" s="17">
+        <v>3</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="H36" s="18" t="s">
         <v>70</v>
       </c>
@@ -4480,7 +4575,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="22" customFormat="1" ht="24.2">
+    <row r="37" spans="1:11" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
         <v>78</v>
       </c>
@@ -4494,8 +4589,12 @@
       <c r="E37" s="16">
         <v>13</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="F37" s="17">
+        <v>3</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="H37" s="18" t="s">
         <v>79</v>
       </c>
@@ -4509,7 +4608,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="22" customFormat="1">
+    <row r="38" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
         <v>83</v>
       </c>
@@ -4523,8 +4622,12 @@
       <c r="E38" s="16">
         <v>1</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="F38" s="17">
+        <v>3</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="H38" s="18" t="s">
         <v>79</v>
       </c>
@@ -4538,7 +4641,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="22" customFormat="1">
+    <row r="39" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
         <v>87</v>
       </c>
@@ -4552,8 +4655,12 @@
       <c r="E39" s="16">
         <v>5</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="F39" s="17">
+        <v>3</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="H39" s="18" t="s">
         <v>79</v>
       </c>
@@ -4567,7 +4674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="22" customFormat="1">
+    <row r="40" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
         <v>90</v>
       </c>
@@ -4581,8 +4688,12 @@
       <c r="E40" s="16">
         <v>8</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="F40" s="17">
+        <v>3</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="H40" s="18" t="s">
         <v>79</v>
       </c>
@@ -4596,7 +4707,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="20" t="s">
         <v>92</v>
       </c>
@@ -4610,8 +4721,12 @@
       <c r="E41" s="21">
         <v>8</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="F41" s="17">
+        <v>4</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="H41" s="18" t="s">
         <v>31</v>
       </c>
@@ -4623,7 +4738,7 @@
       </c>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="20" t="s">
         <v>94</v>
       </c>
@@ -4637,8 +4752,12 @@
       <c r="E42" s="21">
         <v>5</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+      <c r="F42" s="17">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="H42" s="18" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4769,7 @@
       </c>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="20" t="s">
         <v>97</v>
       </c>
@@ -4664,8 +4783,12 @@
       <c r="E43" s="21">
         <v>2</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="F43" s="17">
+        <v>4</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="H43" s="18" t="s">
         <v>31</v>
       </c>
@@ -4679,7 +4802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="44" spans="1:11" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="20" t="s">
         <v>101</v>
       </c>
@@ -4693,8 +4816,12 @@
       <c r="E44" s="21">
         <v>8</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="F44" s="17">
+        <v>4</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="H44" s="18" t="s">
         <v>31</v>
       </c>
@@ -4708,7 +4835,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="45" spans="1:11" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
         <v>105</v>
       </c>
@@ -4723,7 +4850,9 @@
         <v>8</v>
       </c>
       <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="G45" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="H45" s="18" t="s">
         <v>79</v>
       </c>
@@ -4737,7 +4866,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="22" customFormat="1">
+    <row r="46" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="15" t="s">
         <v>109</v>
       </c>
@@ -4752,7 +4881,9 @@
         <v>5</v>
       </c>
       <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="G46" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="H46" s="18" t="s">
         <v>31</v>
       </c>
@@ -4766,7 +4897,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="22" customFormat="1">
+    <row r="47" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
         <v>113</v>
       </c>
@@ -4781,7 +4912,9 @@
         <v>13</v>
       </c>
       <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="G47" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="H47" s="18" t="s">
         <v>70</v>
       </c>
@@ -4795,7 +4928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4808,7 +4941,7 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11" s="22" customFormat="1" ht="15">
+    <row r="49" spans="1:11" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4823,7 +4956,7 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -4836,7 +4969,7 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11" ht="24.2">
+    <row r="51" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
         <v>118</v>
       </c>
@@ -4863,7 +4996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="35.450000000000003">
+    <row r="52" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>123</v>
       </c>
@@ -4890,7 +5023,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
         <v>127</v>
       </c>
@@ -4917,7 +5050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="24">
+    <row r="54" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
         <v>131</v>
       </c>
@@ -4944,7 +5077,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="22" customFormat="1">
+    <row r="55" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="15" t="s">
         <v>135</v>
       </c>
@@ -4971,7 +5104,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4984,7 +5117,7 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4997,7 +5130,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -5010,7 +5143,7 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -5023,7 +5156,7 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -5036,7 +5169,7 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -5049,7 +5182,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -5062,7 +5195,7 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -5075,7 +5208,7 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -5088,7 +5221,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -5101,7 +5234,7 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -5114,7 +5247,7 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -5127,7 +5260,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -5140,7 +5273,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -5153,7 +5286,7 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -5166,7 +5299,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -5179,7 +5312,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -5192,7 +5325,7 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -5205,7 +5338,7 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -5218,7 +5351,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -5231,7 +5364,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5244,7 +5377,7 @@
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5257,7 +5390,7 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5270,7 +5403,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5283,7 +5416,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5296,7 +5429,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -5309,7 +5442,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5322,7 +5455,7 @@
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -5335,7 +5468,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -5348,7 +5481,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -5361,7 +5494,7 @@
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -5374,7 +5507,7 @@
       <c r="J86" s="19"/>
       <c r="K86" s="19"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -5387,7 +5520,7 @@
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -5400,7 +5533,7 @@
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -5413,7 +5546,7 @@
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -5426,7 +5559,7 @@
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -5439,7 +5572,7 @@
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -5452,7 +5585,7 @@
       <c r="J92" s="19"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -5465,7 +5598,7 @@
       <c r="J93" s="19"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -5478,7 +5611,7 @@
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -5491,7 +5624,7 @@
       <c r="J95" s="19"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -5504,7 +5637,7 @@
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -5517,7 +5650,7 @@
       <c r="J97" s="19"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -5530,7 +5663,7 @@
       <c r="J98" s="19"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -5543,7 +5676,7 @@
       <c r="J99" s="19"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -5616,7 +5749,7 @@
       <formula1>"1,2,3,4"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank initially (hint: Use the Delete key)_x000a_Select &quot;In Work&quot; when you begin designing and coding this feature._x000a_Select &quot;In Test&quot; when this feature is fully coded and you are testing it._x000a_Select  Finished ONLY when the feature works well and is READY TO" sqref="G24:G100" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank initially (hint: Use the Delete key)_x000a_Select &quot;In Work&quot; when you begin designing and coding this feature._x000a_Select &quot;In Test&quot; when this feature is fully coded and you are testing it._x000a_Select  Finished ONLY when the feature works well and is READY TO" sqref="G43:G100 G24:G41" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"Not Started,In Work,In Test,Finished in Sprint 1,Finished in Sprint 2,Finished in Sprint 3,Finished in Sprint 4,Finished in Sprint 5,Finished in Sprint 6"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5635,20 +5768,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -5664,7 +5797,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>139</v>
       </c>
@@ -5680,7 +5813,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>141</v>
       </c>
@@ -5695,7 +5828,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>142</v>
       </c>
@@ -5709,7 +5842,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -5719,7 +5852,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -5733,7 +5866,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>145</v>
       </c>
@@ -5748,12 +5881,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -5766,12 +5899,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -5784,12 +5917,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -5802,12 +5935,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -5820,12 +5953,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -5838,12 +5971,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -5856,12 +5989,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -5874,7 +6007,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5884,7 +6017,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>153</v>
       </c>
@@ -5904,7 +6037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -5916,7 +6049,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -5926,7 +6059,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -5936,7 +6069,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -5946,7 +6079,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -5956,7 +6089,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -5966,7 +6099,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -5976,7 +6109,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -5986,7 +6119,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -5996,7 +6129,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -6006,7 +6139,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -6016,7 +6149,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -6026,7 +6159,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -6036,7 +6169,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -6046,7 +6179,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -6056,7 +6189,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -6066,7 +6199,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -6076,7 +6209,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -6086,7 +6219,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -6096,7 +6229,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -6106,7 +6239,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -6116,7 +6249,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -6126,7 +6259,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -6136,7 +6269,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -6146,7 +6279,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -6156,7 +6289,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -6166,7 +6299,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -6176,7 +6309,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -6186,7 +6319,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -6196,7 +6329,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -6206,7 +6339,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -6216,7 +6349,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -6226,7 +6359,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -6236,7 +6369,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -6246,7 +6379,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -6256,7 +6389,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -6266,7 +6399,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -6276,7 +6409,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -6286,7 +6419,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -6296,7 +6429,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -6306,7 +6439,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -6316,7 +6449,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -6326,7 +6459,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -6336,7 +6469,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -6346,7 +6479,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -6356,7 +6489,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -6366,7 +6499,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -6376,7 +6509,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -6386,7 +6519,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -6396,7 +6529,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -6406,7 +6539,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -6416,7 +6549,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -6426,7 +6559,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -6436,7 +6569,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -6446,7 +6579,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -6456,7 +6589,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -6466,7 +6599,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -6476,7 +6609,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -6486,7 +6619,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -6496,7 +6629,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -6506,7 +6639,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -6516,7 +6649,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -6526,7 +6659,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -6536,7 +6669,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -6546,7 +6679,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -6556,7 +6689,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -6566,7 +6699,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -6576,7 +6709,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -6586,7 +6719,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -6596,7 +6729,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -6606,7 +6739,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -6616,7 +6749,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -6626,7 +6759,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -6636,7 +6769,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -6646,7 +6779,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -6656,7 +6789,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -6666,7 +6799,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -6676,7 +6809,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -6686,7 +6819,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -6696,7 +6829,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -6706,7 +6839,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -6716,7 +6849,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -6726,7 +6859,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -6736,7 +6869,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -6807,16 +6940,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -6833,7 +6966,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>139</v>
       </c>
@@ -6850,7 +6983,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>141</v>
       </c>
@@ -6865,7 +6998,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>142</v>
       </c>
@@ -6879,7 +7012,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -6889,7 +7022,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -6903,7 +7036,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>145</v>
       </c>
@@ -6918,12 +7051,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -6936,12 +7069,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -6954,12 +7087,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -6972,12 +7105,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -6990,12 +7123,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -7008,12 +7141,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -7026,12 +7159,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -7044,7 +7177,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -7054,7 +7187,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>153</v>
       </c>
@@ -7074,7 +7207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -7086,7 +7219,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -7096,7 +7229,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -7106,7 +7239,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -7116,7 +7249,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -7126,7 +7259,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -7136,7 +7269,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -7146,7 +7279,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -7156,7 +7289,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -7166,7 +7299,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -7176,7 +7309,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -7186,7 +7319,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -7196,7 +7329,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -7206,7 +7339,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -7216,7 +7349,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -7226,7 +7359,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -7236,7 +7369,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -7246,7 +7379,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -7256,7 +7389,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -7266,7 +7399,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -7276,7 +7409,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -7286,7 +7419,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -7296,7 +7429,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -7306,7 +7439,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -7316,7 +7449,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -7326,7 +7459,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -7336,7 +7469,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -7346,7 +7479,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -7356,7 +7489,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -7366,7 +7499,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -7376,7 +7509,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -7386,7 +7519,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -7396,7 +7529,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -7406,7 +7539,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -7416,7 +7549,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -7426,7 +7559,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -7436,7 +7569,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -7446,7 +7579,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -7456,7 +7589,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -7466,7 +7599,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -7476,7 +7609,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -7486,7 +7619,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -7496,7 +7629,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -7506,7 +7639,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -7516,7 +7649,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -7526,7 +7659,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -7536,7 +7669,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -7546,7 +7679,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -7556,7 +7689,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -7566,7 +7699,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -7576,7 +7709,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -7586,7 +7719,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -7596,7 +7729,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -7606,7 +7739,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -7616,7 +7749,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -7626,7 +7759,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -7636,7 +7769,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -7646,7 +7779,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -7656,7 +7789,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -7666,7 +7799,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -7676,7 +7809,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -7686,7 +7819,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -7696,7 +7829,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -7706,7 +7839,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -7716,7 +7849,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -7726,7 +7859,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -7736,7 +7869,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -7746,7 +7879,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -7756,7 +7889,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -7766,7 +7899,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -7776,7 +7909,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -7786,7 +7919,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -7796,7 +7929,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -7806,7 +7939,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -7816,7 +7949,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -7826,7 +7959,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -7836,7 +7969,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -7846,7 +7979,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -7856,7 +7989,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -7866,7 +7999,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -7876,7 +8009,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -7886,7 +8019,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -7896,7 +8029,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -7906,7 +8039,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -7977,16 +8110,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -8003,7 +8136,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>139</v>
       </c>
@@ -8020,7 +8153,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>141</v>
       </c>
@@ -8035,7 +8168,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>142</v>
       </c>
@@ -8049,7 +8182,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -8059,7 +8192,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -8073,7 +8206,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>145</v>
       </c>
@@ -8088,12 +8221,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -8106,12 +8239,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -8124,12 +8257,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -8142,12 +8275,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -8160,12 +8293,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -8178,12 +8311,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -8196,12 +8329,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -8214,7 +8347,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -8224,7 +8357,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>153</v>
       </c>
@@ -8244,7 +8377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -8256,7 +8389,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -8266,7 +8399,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -8276,7 +8409,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -8286,7 +8419,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -8296,7 +8429,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -8306,7 +8439,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -8316,7 +8449,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -8326,7 +8459,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -8336,7 +8469,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -8346,7 +8479,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -8356,7 +8489,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -8366,7 +8499,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -8376,7 +8509,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -8386,7 +8519,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -8396,7 +8529,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -8406,7 +8539,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -8416,7 +8549,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -8426,7 +8559,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -8436,7 +8569,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -8446,7 +8579,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -8456,7 +8589,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -8466,7 +8599,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -8476,7 +8609,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -8486,7 +8619,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -8496,7 +8629,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -8506,7 +8639,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -8516,7 +8649,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -8526,7 +8659,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -8536,7 +8669,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -8546,7 +8679,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -8556,7 +8689,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -8566,7 +8699,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -8576,7 +8709,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -8586,7 +8719,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -8596,7 +8729,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -8606,7 +8739,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -8616,7 +8749,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -8626,7 +8759,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -8636,7 +8769,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -8646,7 +8779,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -8656,7 +8789,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -8666,7 +8799,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -8676,7 +8809,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -8686,7 +8819,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -8696,7 +8829,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -8706,7 +8839,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -8716,7 +8849,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -8726,7 +8859,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -8736,7 +8869,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -8746,7 +8879,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -8756,7 +8889,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -8766,7 +8899,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -8776,7 +8909,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -8786,7 +8919,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -8796,7 +8929,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -8806,7 +8939,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -8816,7 +8949,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -8826,7 +8959,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -8836,7 +8969,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -8846,7 +8979,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -8856,7 +8989,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -8866,7 +8999,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -8876,7 +9009,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -8886,7 +9019,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -8896,7 +9029,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -8906,7 +9039,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -8916,7 +9049,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -8926,7 +9059,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -8936,7 +9069,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -8946,7 +9079,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -8956,7 +9089,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -8966,7 +9099,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -8976,7 +9109,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -8986,7 +9119,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -8996,7 +9129,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -9006,7 +9139,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -9016,7 +9149,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -9026,7 +9159,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -9036,7 +9169,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -9046,7 +9179,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -9056,7 +9189,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -9066,7 +9199,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -9076,7 +9209,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -9147,16 +9280,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -9173,7 +9306,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>139</v>
       </c>
@@ -9189,7 +9322,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>141</v>
       </c>
@@ -9204,7 +9337,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>142</v>
       </c>
@@ -9218,7 +9351,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -9228,7 +9361,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -9242,7 +9375,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>145</v>
       </c>
@@ -9257,12 +9390,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -9275,12 +9408,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -9293,12 +9426,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -9311,12 +9444,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -9329,12 +9462,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -9347,12 +9480,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -9365,12 +9498,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -9383,7 +9516,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -9393,7 +9526,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>153</v>
       </c>
@@ -9413,7 +9546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -9425,7 +9558,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -9435,7 +9568,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -9445,7 +9578,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -9455,7 +9588,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -9465,7 +9598,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -9475,7 +9608,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -9485,7 +9618,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -9495,7 +9628,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -9505,7 +9638,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -9515,7 +9648,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -9525,7 +9658,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -9535,7 +9668,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -9545,7 +9678,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -9555,7 +9688,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -9565,7 +9698,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -9575,7 +9708,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -9585,7 +9718,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -9595,7 +9728,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -9605,7 +9738,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -9615,7 +9748,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -9625,7 +9758,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -9635,7 +9768,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -9645,7 +9778,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -9655,7 +9788,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -9665,7 +9798,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -9675,7 +9808,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -9685,7 +9818,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -9695,7 +9828,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -9705,7 +9838,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -9715,7 +9848,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -9725,7 +9858,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -9735,7 +9868,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -9745,7 +9878,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -9755,7 +9888,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -9765,7 +9898,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -9775,7 +9908,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -9785,7 +9918,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -9795,7 +9928,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -9805,7 +9938,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -9815,7 +9948,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -9825,7 +9958,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -9835,7 +9968,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -9845,7 +9978,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -9855,7 +9988,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -9865,7 +9998,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -9875,7 +10008,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -9885,7 +10018,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -9895,7 +10028,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -9905,7 +10038,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -9915,7 +10048,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -9925,7 +10058,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -9935,7 +10068,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -9945,7 +10078,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -9955,7 +10088,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -9965,7 +10098,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -9975,7 +10108,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -9985,7 +10118,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -9995,7 +10128,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -10005,7 +10138,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -10015,7 +10148,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -10025,7 +10158,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -10035,7 +10168,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -10045,7 +10178,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -10055,7 +10188,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -10065,7 +10198,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -10075,7 +10208,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -10085,7 +10218,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -10095,7 +10228,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -10105,7 +10238,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -10115,7 +10248,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -10125,7 +10258,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -10135,7 +10268,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -10145,7 +10278,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -10155,7 +10288,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -10165,7 +10298,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -10175,7 +10308,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -10185,7 +10318,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -10195,7 +10328,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -10205,7 +10338,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -10215,7 +10348,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -10225,7 +10358,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -10235,7 +10368,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -10245,7 +10378,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -10312,20 +10445,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -10342,7 +10475,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>139</v>
       </c>
@@ -10359,7 +10492,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>141</v>
       </c>
@@ -10374,7 +10507,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>142</v>
       </c>
@@ -10388,7 +10521,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -10398,7 +10531,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -10412,7 +10545,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>145</v>
       </c>
@@ -10427,12 +10560,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -10445,12 +10578,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -10463,12 +10596,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -10481,12 +10614,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -10499,12 +10632,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -10517,12 +10650,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -10535,17 +10668,17 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>-2</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -10553,7 +10686,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -10563,7 +10696,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>153</v>
       </c>
@@ -10583,39 +10716,57 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="37" t="s">
+        <v>168</v>
+      </c>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="37" t="s">
+        <v>168</v>
+      </c>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="37" t="s">
+        <v>168</v>
+      </c>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -10625,7 +10776,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -10635,7 +10786,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -10645,7 +10796,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -10655,7 +10806,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -10665,7 +10816,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -10675,7 +10826,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -10685,7 +10836,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -10695,7 +10846,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -10705,7 +10856,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -10715,7 +10866,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -10725,7 +10876,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -10735,7 +10886,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -10745,7 +10896,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -10755,7 +10906,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -10765,7 +10916,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -10775,7 +10926,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -10785,7 +10936,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -10795,7 +10946,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -10805,7 +10956,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -10815,7 +10966,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -10825,7 +10976,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -10835,7 +10986,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -10845,7 +10996,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -10855,7 +11006,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -10865,7 +11016,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -10875,7 +11026,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -10885,7 +11036,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -10895,7 +11046,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -10905,7 +11056,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -10915,7 +11066,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -10925,7 +11076,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -10935,7 +11086,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -10945,7 +11096,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -10955,7 +11106,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -10965,7 +11116,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -10975,7 +11126,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -10985,7 +11136,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -10995,7 +11146,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -11005,7 +11156,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -11015,7 +11166,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -11025,7 +11176,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -11035,7 +11186,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -11045,7 +11196,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -11055,7 +11206,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -11065,7 +11216,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -11075,7 +11226,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -11085,7 +11236,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -11095,7 +11246,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -11105,7 +11256,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -11115,7 +11266,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -11125,7 +11276,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -11135,7 +11286,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -11145,7 +11296,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -11155,7 +11306,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -11165,7 +11316,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -11175,7 +11326,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -11185,7 +11336,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -11195,7 +11346,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -11205,7 +11356,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -11215,7 +11366,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -11225,7 +11376,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -11235,7 +11386,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -11245,7 +11396,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -11255,7 +11406,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -11265,7 +11416,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -11275,7 +11426,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -11285,7 +11436,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -11295,7 +11446,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -11305,7 +11456,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -11315,7 +11466,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -11325,7 +11476,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -11335,7 +11486,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -11345,7 +11496,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -11355,7 +11506,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -11365,7 +11516,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -11375,7 +11526,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -11385,7 +11536,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -11395,7 +11546,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -11405,7 +11556,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -11415,7 +11566,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -11486,16 +11637,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -11514,7 +11665,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>139</v>
       </c>
@@ -11531,7 +11682,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>141</v>
       </c>
@@ -11546,7 +11697,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>142</v>
       </c>
@@ -11560,7 +11711,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -11570,7 +11721,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -11584,7 +11735,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>145</v>
       </c>
@@ -11599,12 +11750,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -11617,12 +11768,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -11635,12 +11786,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -11653,12 +11804,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -11671,12 +11822,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -11689,12 +11840,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -11707,12 +11858,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -11725,7 +11876,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -11737,7 +11888,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>153</v>
       </c>
@@ -11757,7 +11908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -11769,7 +11920,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -11779,7 +11930,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -11789,7 +11940,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -11799,7 +11950,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -11809,7 +11960,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -11819,7 +11970,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -11829,7 +11980,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -11839,7 +11990,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -11849,7 +12000,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -11859,7 +12010,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -11869,7 +12020,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -11879,7 +12030,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -11889,7 +12040,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -11899,7 +12050,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -11909,7 +12060,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -11919,7 +12070,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -11929,7 +12080,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -11939,7 +12090,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -11949,7 +12100,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -11959,7 +12110,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -11969,7 +12120,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -11979,7 +12130,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -11989,7 +12140,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -11999,7 +12150,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -12009,7 +12160,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -12019,7 +12170,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -12029,7 +12180,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -12039,7 +12190,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -12049,7 +12200,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -12059,7 +12210,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -12069,7 +12220,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -12079,7 +12230,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -12089,7 +12240,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -12099,7 +12250,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -12109,7 +12260,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -12119,7 +12270,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -12129,7 +12280,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -12139,7 +12290,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -12149,7 +12300,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -12159,7 +12310,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -12169,7 +12320,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -12179,7 +12330,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -12189,7 +12340,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -12199,7 +12350,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -12209,7 +12360,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -12219,7 +12370,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -12229,7 +12380,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -12239,7 +12390,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -12249,7 +12400,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -12259,7 +12410,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -12269,7 +12420,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -12279,7 +12430,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -12289,7 +12440,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -12299,7 +12450,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -12309,7 +12460,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -12319,7 +12470,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -12329,7 +12480,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -12339,7 +12490,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -12349,7 +12500,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -12359,7 +12510,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -12369,7 +12520,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -12379,7 +12530,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -12389,7 +12540,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -12399,7 +12550,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -12409,7 +12560,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -12419,7 +12570,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -12429,7 +12580,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -12439,7 +12590,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -12449,7 +12600,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -12459,7 +12610,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -12469,7 +12620,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -12479,7 +12630,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -12489,7 +12640,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -12499,7 +12650,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -12509,7 +12660,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -12519,7 +12670,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -12529,7 +12680,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -12539,7 +12690,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -12549,7 +12700,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -12559,7 +12710,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -12569,7 +12720,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -12579,7 +12730,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -12589,7 +12740,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
